--- a/data/Adressen.xlsx
+++ b/data/Adressen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\htl-stp-et\s24k4bspringboot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD66C2C5-3400-4707-BF91-90015D027770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4B2098-0DBE-4771-8CDE-82880660BDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{7C0BD9FE-068E-4381-B83B-0E99B14B5FF0}"/>
+    <workbookView xWindow="4185" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{7C0BD9FE-068E-4381-B83B-0E99B14B5FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A54429C-D80F-4BFB-89AF-C81360C53EE4}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
